--- a/app/config/tables/section_test/forms/section_test/section_test.xlsx
+++ b/app/config/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,26 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="3060" yWindow="4780" windowWidth="25820" windowHeight="13500" activeTab="4"/>
-  </bookViews>
-  <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="section1" sheetId="4" r:id="rId2"/>
-    <sheet name="section2" sheetId="5" r:id="rId3"/>
-    <sheet name="choices" sheetId="2" r:id="rId4"/>
-    <sheet name="settings" sheetId="3" r:id="rId5"/>
-  </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
@@ -908,338 +885,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="14" width="13.6328125" customWidth="1"/>
-    <col min="15" max="15" width="30.1796875" customWidth="1"/>
-    <col min="16" max="16" width="33.6328125" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" customWidth="1"/>
-    <col min="18" max="18" width="15.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" customWidth="1"/>
-    <col min="9" max="13" width="15.36328125" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="16" width="34.6328125" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="5" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>

--- a/app/config/tables/section_test/forms/section_test/section_test.xlsx
+++ b/app/config/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,3 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="3060" yWindow="4780" windowWidth="25820" windowHeight="13500" activeTab="4"/>
+  </bookViews>
+  <sheets>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="section1" sheetId="4" r:id="rId2"/>
+    <sheet name="section2" sheetId="5" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" r:id="rId4"/>
+    <sheet name="settings" sheetId="3" r:id="rId5"/>
+  </sheets>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
@@ -885,6 +908,338 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="14" width="13.6328125" customWidth="1"/>
+    <col min="15" max="15" width="30.1796875" customWidth="1"/>
+    <col min="16" max="16" width="33.6328125" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" customWidth="1"/>
+    <col min="18" max="18" width="15.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" customWidth="1"/>
+    <col min="9" max="13" width="15.36328125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" customWidth="1"/>
+    <col min="15" max="16" width="34.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>

--- a/app/config/tables/section_test/forms/section_test/section_test.xlsx
+++ b/app/config/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="4780" windowWidth="25820" windowHeight="13500" activeTab="4"/>
+    <workbookView xWindow="3063" yWindow="4778" windowWidth="25815" windowHeight="13497" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>display.title.hindi</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -400,6 +400,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -447,7 +450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +485,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,21 +700,21 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="15" width="18.36328125" customWidth="1"/>
-    <col min="16" max="16" width="24.1796875" customWidth="1"/>
-    <col min="17" max="17" width="18.36328125" customWidth="1"/>
-    <col min="18" max="18" width="15.1796875" customWidth="1"/>
+    <col min="1" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="24.21875" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -759,142 +762,142 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
       <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
         <v>74</v>
-      </c>
-      <c r="I16" t="s">
-        <v>75</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -916,26 +919,26 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="13.6328125" customWidth="1"/>
+    <col min="1" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="14" width="13.6328125" customWidth="1"/>
-    <col min="15" max="15" width="30.1796875" customWidth="1"/>
-    <col min="16" max="16" width="33.6328125" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" customWidth="1"/>
-    <col min="18" max="18" width="15.36328125" customWidth="1"/>
+    <col min="12" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.21875" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -983,47 +986,47 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
         <v>76</v>
       </c>
-      <c r="O3" t="s">
-        <v>77</v>
-      </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1044,23 +1047,23 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" customWidth="1"/>
-    <col min="9" max="13" width="15.36328125" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="16" width="34.6328125" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" customWidth="1"/>
+    <col min="1" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" customWidth="1"/>
+    <col min="9" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" customWidth="1"/>
+    <col min="15" max="16" width="34.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1108,47 +1111,47 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" t="s">
         <v>78</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>79</v>
-      </c>
-      <c r="P3" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1169,12 +1172,12 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1188,46 +1191,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1245,18 +1248,18 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="7" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="7" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1276,21 +1279,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>20130808</v>
@@ -1300,49 +1303,49 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1350,24 +1353,24 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/section_test/forms/section_test/section_test.xlsx
+++ b/app/config/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3063" yWindow="4778" windowWidth="25815" windowHeight="13497" activeTab="4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>comments</t>
   </si>
@@ -49,27 +49,12 @@
     <t>display.text.hindi</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.hint.hindi</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
-    <t>constraint_message.hindi</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -88,12 +73,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
-    <t>display.title.hindi</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -290,12 +269,45 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.title.text.hindi</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text.hindi</t>
+  </si>
+  <si>
+    <t>display.hint.text.hindi</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.hindi</t>
+  </si>
+  <si>
+    <t>display.locale.text</t>
+  </si>
+  <si>
+    <t>display.locale.text.hindi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,6 +495,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -518,6 +547,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,15 +742,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="24.21875" customWidth="1"/>
+    <col min="3" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
+    <col min="12" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="28.21875" customWidth="1"/>
+    <col min="16" max="16" width="34.44140625" customWidth="1"/>
     <col min="17" max="17" width="18.33203125" customWidth="1"/>
     <col min="18" max="18" width="15.21875" customWidth="1"/>
   </cols>
@@ -714,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -732,78 +783,78 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
@@ -811,18 +862,18 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
@@ -830,23 +881,23 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
@@ -854,18 +905,18 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
@@ -873,23 +924,23 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
@@ -897,7 +948,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -915,18 +966,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="14" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="13" max="14" width="13.6640625" customWidth="1"/>
     <col min="15" max="15" width="30.21875" customWidth="1"/>
     <col min="16" max="16" width="33.6640625" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" customWidth="1"/>
@@ -938,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -956,48 +1007,48 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1005,28 +1056,28 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1043,15 +1094,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="27.21875" customWidth="1"/>
-    <col min="9" max="13" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="19.21875" customWidth="1"/>
     <col min="15" max="16" width="34.6640625" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" customWidth="1"/>
@@ -1063,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1081,48 +1136,48 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1130,28 +1185,28 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1179,10 +1234,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
@@ -1193,44 +1248,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1248,43 +1303,43 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="7" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1293,7 +1348,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>20130808</v>
@@ -1305,72 +1360,72 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/section_test/forms/section_test/section_test.xlsx
+++ b/app/config/tables/section_test/forms/section_test/section_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3063" yWindow="4778" windowWidth="25815" windowHeight="13497" activeTab="4"/>
+    <workbookView xWindow="3063" yWindow="4778" windowWidth="25815" windowHeight="13497" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
   <si>
     <t>comments</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.text.hindi</t>
   </si>
   <si>
     <t>required</t>
@@ -765,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -783,78 +777,78 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
@@ -862,18 +856,18 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
@@ -881,23 +875,23 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
@@ -905,18 +899,18 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
@@ -924,23 +918,23 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
@@ -948,7 +942,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1007,48 +1001,48 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1056,28 +1050,28 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1136,48 +1130,48 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1185,28 +1179,28 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
         <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1223,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1234,58 +1228,58 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1316,30 +1310,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1348,7 +1342,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>20130808</v>
@@ -1360,72 +1354,72 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/section_test/forms/section_test/section_test.xlsx
+++ b/app/config/tables/section_test/forms/section_test/section_test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D65C3AC-8B55-4D3E-A924-4E264A2C06B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3063" yWindow="4778" windowWidth="25815" windowHeight="13497" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -76,9 +77,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>hindi</t>
-  </si>
-  <si>
     <t>Hindi</t>
   </si>
   <si>
@@ -268,40 +266,43 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>display.title.text.hindi</t>
-  </si>
-  <si>
     <t>display.hint.text</t>
   </si>
   <si>
     <t>display.prompt.text</t>
   </si>
   <si>
-    <t>display.prompt.text.hindi</t>
-  </si>
-  <si>
-    <t>display.hint.text.hindi</t>
-  </si>
-  <si>
     <t>display.prompt.image</t>
   </si>
   <si>
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>display.constraint_message.text.hindi</t>
-  </si>
-  <si>
     <t>display.locale.text</t>
   </si>
   <si>
-    <t>display.locale.text.hindi</t>
+    <t>display.title.text.hi</t>
+  </si>
+  <si>
+    <t>display.locale.text.hi</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>display.prompt.text.hi</t>
+  </si>
+  <si>
+    <t>display.hint.text.hi</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,14 +734,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="8" width="18.33203125" customWidth="1"/>
@@ -759,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -777,19 +778,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
@@ -798,151 +799,151 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
         <v>64</v>
-      </c>
-      <c r="I16" t="s">
-        <v>65</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -957,14 +958,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
@@ -983,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1001,19 +1002,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
@@ -1022,27 +1023,27 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1050,28 +1051,28 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" t="s">
         <v>66</v>
       </c>
-      <c r="O3" t="s">
-        <v>67</v>
-      </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1085,14 +1086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="27.21875" customWidth="1"/>
@@ -1112,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1130,19 +1131,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
@@ -1151,27 +1152,27 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1179,28 +1180,28 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
         <v>68</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1214,14 +1215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="24" customWidth="1"/>
   </cols>
@@ -1234,52 +1235,52 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1293,14 +1294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
@@ -1316,24 +1317,24 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1358,38 +1359,38 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1405,21 +1406,21 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
